--- a/excelhere/room_four.xlsx
+++ b/excelhere/room_four.xlsx
@@ -433,37 +433,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excelhere/room_four.xlsx
+++ b/excelhere/room_four.xlsx
@@ -433,14 +433,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>442</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excelhere/room_four.xlsx
+++ b/excelhere/room_four.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>003</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>Monster</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>Abc</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,14 +474,120 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>수저</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>780</v>
+      </c>
+      <c r="D1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>수저</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>780</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>닭볶음탕</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>양념치킨</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>새우튀김</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>개</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2600</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excelhere/room_four.xlsx
+++ b/excelhere/room_four.xlsx
@@ -444,17 +444,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>0004</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Monster</t>
+          <t>서건</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Abc</t>
+          <t>남궁오</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>수저</t>
+          <t>닭볶음탕</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>780</v>
+        <v>9000</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>780</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>닭볶음탕</t>
+          <t>새우튀김</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9000</v>
+        <v>2600</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>9000</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>양념치킨</t>
+          <t>치킨</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -557,34 +557,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>새우튀김</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>개</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2600</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>
